--- a/final_data_pipeline/output/311942longform.xlsx
+++ b/final_data_pipeline/output/311942longform.xlsx
@@ -756,7 +756,7 @@
         <v>63</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB2">
         <v>8000</v>
@@ -845,7 +845,7 @@
         <v>63</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB3">
         <v>8000</v>
@@ -934,7 +934,7 @@
         <v>63</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB4">
         <v>8000</v>
@@ -1023,7 +1023,7 @@
         <v>63</v>
       </c>
       <c r="AA5">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB5">
         <v>8000</v>
@@ -1118,7 +1118,7 @@
         <v>63</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB6">
         <v>8000</v>
@@ -1213,7 +1213,7 @@
         <v>63</v>
       </c>
       <c r="AA7">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB7">
         <v>8000</v>
@@ -1308,7 +1308,7 @@
         <v>63</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB8">
         <v>8000</v>
@@ -1397,7 +1397,7 @@
         <v>63</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB9">
         <v>8000</v>
@@ -1492,7 +1492,7 @@
         <v>63</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB10">
         <v>8000</v>
@@ -1581,7 +1581,7 @@
         <v>63</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB11">
         <v>8000</v>
@@ -1676,7 +1676,7 @@
         <v>63</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB12">
         <v>8000</v>
@@ -1765,7 +1765,7 @@
         <v>63</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB13">
         <v>8000</v>
@@ -2412,7 +2412,7 @@
         <v>63</v>
       </c>
       <c r="AA20">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB20">
         <v>8000</v>
@@ -2507,7 +2507,7 @@
         <v>63</v>
       </c>
       <c r="AA21">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB21">
         <v>8000</v>
@@ -2596,7 +2596,7 @@
         <v>63</v>
       </c>
       <c r="AA22">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB22">
         <v>8000</v>
@@ -2685,7 +2685,7 @@
         <v>63</v>
       </c>
       <c r="AA23">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB23">
         <v>8000</v>
@@ -2780,7 +2780,7 @@
         <v>63</v>
       </c>
       <c r="AA24">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB24">
         <v>8000</v>
@@ -2875,7 +2875,7 @@
         <v>63</v>
       </c>
       <c r="AA25">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB25">
         <v>8000</v>
